--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryanverma/Desktop/code/finance dashboard saksham/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBE2291-AF2F-474C-B25D-FCF4A1417A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BF7A0B-E042-564A-AF3C-FA1E6967BA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{C403806B-EE54-4159-8490-880D93F72912}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{C403806B-EE54-4159-8490-880D93F72912}"/>
   </bookViews>
   <sheets>
     <sheet name="Eligibility Criteria" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1BE89-54E1-4F02-B87E-5904552D2063}">
   <dimension ref="C2:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561AF1AF-C292-4C2B-934F-F6BE2D2BB5EA}">
   <dimension ref="C4:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
